--- a/PruebasProg/PruebasProg/wwwroot/archivosMttos/PRUEBAEXCEL_copiado.xlsx
+++ b/PruebasProg/PruebasProg/wwwroot/archivosMttos/PRUEBAEXCEL_copiado.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HOJA DE PROGRAMACION DE MANTENIMIENTO PREVENTIVO</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>CODIGO</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -2687,7 +2690,9 @@
       <c r="D18" s="86"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="H18" s="12" t="s">
         <v>18</v>
       </c>
@@ -2914,7 +2919,7 @@
     </row>
     <row r="22" ht="17.1" customHeight="1" s="6" customFormat="1">
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="85"/>
       <c r="D22" s="86"/>
@@ -3059,7 +3064,7 @@
       </c>
       <c r="AB24" s="12"/>
       <c r="AC24" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD24" s="12"/>
       <c r="AE24" s="11"/>
@@ -4960,10 +4965,10 @@
     <row r="58" ht="24.95" customHeight="1" s="6" customFormat="1">
       <c r="C58" s="15"/>
       <c r="D58" s="54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" s="99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F58" s="100"/>
       <c r="G58" s="100"/>
@@ -5019,7 +5024,7 @@
     <row r="59" ht="24.95" customHeight="1" s="6" customFormat="1">
       <c r="C59" s="15"/>
       <c r="D59" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E59" s="93" t="s">
         <v>7</v>
@@ -5133,7 +5138,7 @@
     <row r="61" ht="14.1" customHeight="1" s="6" customFormat="1">
       <c r="C61" s="15"/>
       <c r="D61" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E61" s="19">
         <v>1</v>
@@ -5143,7 +5148,7 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L61" s="91"/>
       <c r="M61" s="91"/>
@@ -5163,7 +5168,7 @@
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
       <c r="AA61" s="91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB61" s="91"/>
       <c r="AC61" s="91"/>
@@ -5220,7 +5225,7 @@
         <v>2</v>
       </c>
       <c r="X62" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y62" s="29"/>
       <c r="Z62" s="35"/>
@@ -5270,7 +5275,7 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
@@ -5315,7 +5320,7 @@
     </row>
     <row r="64" ht="14.1" customHeight="1" s="6" customFormat="1">
       <c r="C64" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="38"/>
